--- a/sampleSpreadsheet/sample.xlsx
+++ b/sampleSpreadsheet/sample.xlsx
@@ -11,4 +11,26 @@
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
 </x:worksheet>
+</file>
+
+<file path=sample/[Content_Types].xml><?xml version="1.0" encoding="utf-8"?>
+<Types xmlns="http://schemas.openxmlformats.org/package/2006/content-types">
+  <Default Extension="xml" ContentType="application/vnd.openxmlformats-officedocument.spreadsheetml.sheet.main+xml"/>
+  <Default Extension="rels" ContentType="application/vnd.openxmlformats-package.relationships+xml"/>
+  <Override PartName="/xl/worksheets/sheet.xml" ContentType="application/vnd.openxmlformats-officedocument.spreadsheetml.worksheet+xml"/>
+</Types>
+</file>
+
+<file path=sample/xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheets>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mySheet" sheetId="1" r:id="R5cb8eb366d02423b"/>
+  </x:sheets>
+</x:workbook>
+</file>
+
+<file path=sample/xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetData/>
+</x:worksheet>
 </file>